--- a/trend_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
+++ b/trend_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.530567505088112</v>
+        <v>0.469432494911888</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0064771161947636</v>
+        <v>0.993522883805236</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.75474462088157</v>
+        <v>0.24525537911843</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2879,6 +2879,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0588235294117647</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.529411764705882</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0159788026810601</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.009993536025387601</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.058388476588652</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8511904761904761</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0269504854368931</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0459811165845649</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.271952426204774</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Very unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>5.42029973443995e-13</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.196531791907514</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.514450867052023</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.005490229570921</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.003464229095378</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0073116469517743</v>
+      </c>
+      <c r="N30" t="n">
+        <v>15.6863702026315</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8550617216365231</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.738372093023256</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0581395348837209</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5.88111164660254e-05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.521212121212121</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0255244755244755</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0011567846479779</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0002085448801232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.001863117073754</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.53206040166701</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.89616965762918</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.782894736842105</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0592105263157895</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3.94187827419394e-09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0194805194805195</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.04025</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0011446290014514</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.000997032404736</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0014973546307716</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.84379876137009</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.04474700002299e-08</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.835294117647059</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.118587662337662</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.154293027078434</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.07969632586470909</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-3.62653401644227</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.02409651989904e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.682080924855491</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0049852138307552</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0030056699434007</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0070401703243221</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.1543448589627</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0014235031789609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.122093023255814</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.337209302325581</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0035120192307692</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0016653744284701</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0050058953832476</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.51201923076923</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.37421162432114e-07</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.005813953488372</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0040137362637362</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0024861071387852</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0055115260915848</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.04164256795836</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.999917853055838</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.936046511627907</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.653584288052373</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-1.00390676509504</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.376113117235836</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-5.40152304175515</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
+++ b/trend_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.165365926582622</v>
+        <v>0.0009012667498069</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.808510638297872</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0347857142857143</v>
+        <v>-0.0840163438256659</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0827707565563643</v>
+        <v>-0.16054945054945</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0153211930370555</v>
+        <v>-0.0442507764857558</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.93877551020408</v>
+        <v>-26.2551074455206</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.469432494911888</v>
+        <v>0.7791218362875399</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.949999999999999</v>
+        <v>10.135</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0150722145804682</v>
+        <v>0.0531756141947225</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0735520076498013</v>
+        <v>-0.0160108877114821</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0887934145358619</v>
+        <v>0.0912700977621724</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.151479543522294</v>
+        <v>0.524673055695338</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.119473686849508</v>
+        <v>0.445227650166422</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0073428600654664</v>
+        <v>0.0006888160982961</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0017891302427639</v>
+        <v>-0.008362236842711</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0227528401879678</v>
+        <v>0.0103131372730422</v>
       </c>
       <c r="N4" t="n">
-        <v>8.74150007793625</v>
+        <v>0.956689025411283</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -925,31 +925,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0298595584642992</v>
+        <v>0.322633939835724</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.88</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0402097902097902</v>
+        <v>0.034965034965035</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0074671244490677</v>
+        <v>0.0015391788467065</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009671158384889</v>
+        <v>-0.0036522107545363</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0159176707704356</v>
+        <v>0.0061534328501927</v>
       </c>
       <c r="N6" t="n">
-        <v>18.5704138472466</v>
+        <v>4.40205150158061</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0166353814835038</v>
+        <v>0.918202405810467</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.473684210526316</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0.045</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0014873507202827</v>
+        <v>-0.0010243343387233</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003922871305625</v>
+        <v>-0.0022957034958132</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0025085851648351</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.30522382285044</v>
+        <v>-2.27629853049639</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1192,25 +1192,25 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.910714285714286</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0150515109890109</v>
+        <v>0.0024965823650033</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.139385524292037</v>
+        <v>-0.157409027085136</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0549657451427066</v>
+        <v>0.0745534871569485</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.583391898798872</v>
+        <v>0.09280975334585</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0345290228271576</v>
+        <v>0.0760463162407899</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.15</v>
+        <v>0.135</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0155619910782751</v>
+        <v>0.008714277466424201</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001575731982863</v>
+        <v>-0.0009586430928361</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0413334409143136</v>
+        <v>0.0166514069529517</v>
       </c>
       <c r="N10" t="n">
-        <v>10.37466071885</v>
+        <v>6.45502034549943</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0181581563926805</v>
+        <v>0.762534788070248</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="H11" t="n">
-        <v>0.789473684210526</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>0.11</v>
       </c>
       <c r="K11" t="n">
-        <v>4.70115375695733</v>
+        <v>-0.0025218267473552</v>
       </c>
       <c r="L11" t="n">
-        <v>1.00638232907323</v>
+        <v>-0.0119401265528236</v>
       </c>
       <c r="M11" t="n">
-        <v>12.1841213876663</v>
+        <v>0.0044108136239567</v>
       </c>
       <c r="N11" t="n">
-        <v>22.3864464617016</v>
+        <v>-2.29256977032297</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1451,35 +1451,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.883349554505644</v>
+        <v>0.402126036298633</v>
       </c>
       <c r="G12" t="n">
-        <v>0.087719298245614</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.421052631578947</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.12</v>
+        <v>0.083</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0066059409340659</v>
+        <v>0.0010788068780242</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0164361573800912</v>
+        <v>-0.0083935222991109</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.009606706791821599</v>
       </c>
       <c r="N12" t="n">
-        <v>-5.50495077838828</v>
+        <v>1.29976732292073</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1546,31 +1546,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0760477826812023</v>
+        <v>0.103870028628941</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.859649122807018</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08799999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0096110656730885</v>
+        <v>1.2545623732757</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0012459389428311</v>
+        <v>-0.294220987756669</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0256142835938916</v>
+        <v>4.22336990969454</v>
       </c>
       <c r="N13" t="n">
-        <v>10.9216655376006</v>
+        <v>13.8779023592444</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1622,46 +1622,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.210552462000903</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.626262626262626</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.29887292785152</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>9.880000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="K14" t="n">
-        <v>0.392569912398922</v>
+        <v>-0.008553864168618201</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.895602894180084</v>
+        <v>-0.030017526419902</v>
       </c>
       <c r="M14" t="n">
-        <v>2.64969594667398</v>
+        <v>0.0069819276600735</v>
       </c>
       <c r="N14" t="n">
-        <v>3.97337968015103</v>
+        <v>-2.51584240253479</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1728,31 +1728,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.802610621290651</v>
+        <v>0.999622230676362</v>
       </c>
       <c r="G15" t="n">
-        <v>0.029126213592233</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.631067961165049</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.35</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0066895604395604</v>
+        <v>0.0771619991850253</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0100343406593407</v>
+        <v>0.0400365984050441</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0250858516483517</v>
+        <v>0.102153033093488</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91130298273156</v>
+        <v>0.777450873400759</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1815,35 +1815,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.993522883805236</v>
+        <v>0.467276704084707</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.885964912280702</v>
+        <v>0.71304347826087</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.654999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0613378936780331</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0158082666691021</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0910415338031465</v>
+        <v>0.0033722769611856</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6352966719630559</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1895,46 +1895,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.183185818868329</v>
+        <v>0.702556433217187</v>
       </c>
       <c r="G17" t="n">
+        <v>0.808695652173913</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.0260869565217391</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.704347826086957</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.078</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001871444270939</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001174566784794</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0050280793390972</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.39928752684488</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2001,31 +2001,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.986073797595307</v>
+        <v>0.0042711975726622</v>
       </c>
       <c r="G18" t="n">
-        <v>0.721739130434783</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0260869565217391</v>
+        <v>0.601851851851852</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0.027972027972028</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.0019135654781112</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0030800387061713</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6.8409965842478</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2077,46 +2077,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0012762686301625</v>
+        <v>0.908668223555015</v>
       </c>
       <c r="G19" t="n">
-        <v>0.212962962962963</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="H19" t="n">
-        <v>0.601851851851852</v>
+        <v>0.06956521739130429</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.027972027972028</v>
+        <v>0.001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0023567567503113</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003216270451149</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004148647421997</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>8.42540538236306</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2179,35 +2179,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.988748858530254</v>
+        <v>0.0061070078406513</v>
       </c>
       <c r="G20" t="n">
-        <v>0.730434782608696</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001</v>
+        <v>0.043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0007525755494505</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0002562933160826</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0012435271427694</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.75017569639662</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,14 +2259,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.63060699047753e-07</v>
+        <v>0.456061362045694</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.495652173913044</v>
+        <v>0.850877192982456</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.041</v>
+        <v>2.72</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0014164484587338</v>
+        <v>-0.0043616209073557</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0009694460750085</v>
+        <v>-0.0553242177195368</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0018617706237424</v>
+        <v>0.0323683168635961</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45475233837522</v>
+        <v>-0.160353709829255</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2336,11 +2336,7 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2365,31 +2361,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.24525537911843</v>
+        <v>0.0001703476144272</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.859649122807018</v>
+        <v>0.747826086956522</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.61</v>
+        <v>0.1247</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0233920402561757</v>
+        <v>0.0069687050435566</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.066281574088004</v>
+        <v>0.0042358681556103</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0222213604677261</v>
+        <v>0.009847142490961899</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.89624675311018</v>
+        <v>5.58837613757552</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2398,7 +2394,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2427,7 +2423,11 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2452,31 +2452,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.6080257892335e-05</v>
+        <v>0.024407937983355</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0608695652173913</v>
       </c>
       <c r="H23" t="n">
-        <v>0.730434782608696</v>
+        <v>0.417391304347826</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.128</v>
+        <v>0.1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.008384936005937101</v>
+        <v>0.0027537871140542</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0045132734080265</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0146448851818709</v>
+        <v>0.0070091910294274</v>
       </c>
       <c r="N23" t="n">
-        <v>6.55073125463843</v>
+        <v>2.75378711405422</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2543,31 +2543,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.985621210890485</v>
+        <v>0.351081123111754</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.652173913043478</v>
+        <v>0.7913043478260871</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>0.082</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.3686686876342</v>
+        <v>0.0008456267232701</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.51420810891321</v>
+        <v>-0.0016671303695327</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.5015080973477229</v>
+        <v>0.0035128033154753</v>
       </c>
       <c r="N24" t="n">
-        <v>-5.06914328753409</v>
+        <v>1.03125210154898</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0404475221129139</v>
+        <v>0.900307178888245</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0608695652173913</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.478260869565217</v>
+        <v>0.947826086956522</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.104</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0026837521815659</v>
+        <v>-0.352012372560591</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.789934618638283</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006439895814723</v>
+        <v>0.0400021472111222</v>
       </c>
       <c r="N25" t="n">
-        <v>2.58053094381342</v>
+        <v>-3.56287826478331</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2725,31 +2725,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.073779169601912</v>
+        <v>0.046762799664863</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0225563909774436</v>
       </c>
       <c r="H26" t="n">
-        <v>0.765217391304348</v>
+        <v>0.548872180451128</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.082</v>
+        <v>0.37</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0029411446241606</v>
+        <v>-0.0150034230944774</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0002496582365003</v>
+        <v>-0.0328883408387135</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006481793762741</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.58676173678123</v>
+        <v>-4.05497921472362</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2816,31 +2816,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.986504616977338</v>
+        <v>0.689550291707973</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.947826086956522</v>
+        <v>0.847058823529412</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.2</v>
+        <v>9.865</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.585147606719164</v>
+        <v>0.0099855747670536</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.0047460896459</v>
+        <v>-0.0199726589200274</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.150025503747209</v>
+        <v>0.0322506146482664</v>
       </c>
       <c r="N27" t="n">
-        <v>-5.73674124234475</v>
+        <v>0.10122224801879</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2903,35 +2903,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>1.05711625170537e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.160919540229885</v>
       </c>
       <c r="H28" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.365</v>
+        <v>0.0405</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.0039755102040816</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0159788026810601</v>
+        <v>0.0025839228662711</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009993536025387601</v>
+        <v>0.0059874458816748</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>9.816074577979339</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2983,46 +2983,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.058388476588652</v>
+        <v>0.91877028450203</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.7471264367816089</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8511904761904761</v>
+        <v>0.0459770114942529</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>9.91</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0269504854368931</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0459811165845649</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.271952426204774</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3085,35 +3085,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.42029973443995e-13</v>
+        <v>0.0004306481999577</v>
       </c>
       <c r="G30" t="n">
-        <v>0.196531791907514</v>
+        <v>0.246987951807229</v>
       </c>
       <c r="H30" t="n">
-        <v>0.514450867052023</v>
+        <v>0.524096385542169</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.035</v>
+        <v>0.026048951048951</v>
       </c>
       <c r="K30" t="n">
-        <v>0.005490229570921</v>
+        <v>0.001028460302073</v>
       </c>
       <c r="L30" t="n">
-        <v>0.003464229095378</v>
+        <v>3.8758282667614e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0073116469517743</v>
+        <v>0.0016410003746412</v>
       </c>
       <c r="N30" t="n">
-        <v>15.6863702026315</v>
+        <v>3.94818317305897</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3180,19 +3180,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8550617216365231</v>
+        <v>0.919343491869824</v>
       </c>
       <c r="G31" t="n">
-        <v>0.738372093023256</v>
+        <v>0.798780487804878</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.0548780487804878</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0.001</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3267,35 +3267,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.88111164660254e-05</v>
+        <v>1.25218626826303e-08</v>
       </c>
       <c r="G32" t="n">
-        <v>0.272727272727273</v>
+        <v>0.0182926829268293</v>
       </c>
       <c r="H32" t="n">
-        <v>0.521212121212121</v>
+        <v>0.390243902439024</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0255244755244755</v>
+        <v>0.04</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0011567846479779</v>
+        <v>0.0010022309075816</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0002085448801232</v>
+        <v>0.0007454081632653</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001863117073754</v>
+        <v>0.00124261997132</v>
       </c>
       <c r="N32" t="n">
-        <v>4.53206040166701</v>
+        <v>2.50557726895406</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3347,46 +3347,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.89616965762918</v>
+        <v>1.82956415017976e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>0.782894736842105</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0592105263157895</v>
+        <v>0.825581395348837</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001</v>
+        <v>3.14</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.100877686956304</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.139175475451507</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-0.0663840675179639</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-3.21266518969122</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,11 +3424,7 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3438,7 +3434,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3453,31 +3449,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.94187827419394e-09</v>
+        <v>1.35480918516197e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0194805194805195</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.428571428571429</v>
+        <v>0.7471264367816089</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04025</v>
+        <v>0.12</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0011446290014514</v>
+        <v>0.0046744043567052</v>
       </c>
       <c r="L34" t="n">
-        <v>0.000997032404736</v>
+        <v>0.0028954537793669</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0014973546307716</v>
+        <v>0.0066751274412509</v>
       </c>
       <c r="N34" t="n">
-        <v>2.84379876137009</v>
+        <v>3.89533696392103</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3517,7 +3513,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3525,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3544,31 +3540,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.04474700002299e-08</v>
+        <v>0.0020247330538343</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0977011494252874</v>
       </c>
       <c r="H35" t="n">
-        <v>0.835294117647059</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.27</v>
+        <v>0.1</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.118587662337662</v>
+        <v>0.0032378111148994</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.154293027078434</v>
+        <v>0.0014856305274464</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.07969632586470909</v>
+        <v>0.0049912287835022</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.62653401644227</v>
+        <v>3.23781111489942</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3577,7 +3573,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3606,7 +3602,11 @@
           <t>Whau_1a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3627,35 +3627,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.02409651989904e-05</v>
+        <v>1.77405853542764e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H36" t="n">
-        <v>0.682080924855491</v>
+        <v>0.660919540229885</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.12</v>
+        <v>0.061</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0049852138307552</v>
+        <v>0.0029543616226978</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0030056699434007</v>
+        <v>0.0018398987587234</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0070401703243221</v>
+        <v>0.0045410750087468</v>
       </c>
       <c r="N36" t="n">
-        <v>4.1543448589627</v>
+        <v>4.84321577491452</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3722,31 +3722,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0014235031789609</v>
+        <v>0.999247860043962</v>
       </c>
       <c r="G37" t="n">
-        <v>0.122093023255814</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.337209302325581</v>
+        <v>0.925287356321839</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1</v>
+        <v>10.95</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0035120192307692</v>
+        <v>-0.514278006166495</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0016653744284701</v>
+        <v>-0.810488963939902</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0050058953832476</v>
+        <v>-0.290806254382661</v>
       </c>
       <c r="N37" t="n">
-        <v>3.51201923076923</v>
+        <v>-4.69660279604105</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3785,188 +3785,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Whangaehu at u/s Winstone Pulp</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.37421162432114e-07</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.005813953488372</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.6279069767441861</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0040137362637362</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0024861071387852</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0055115260915848</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7.04164256795836</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1822057</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5628629</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Whau_1a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Whangaehu at u/s Winstone Pulp</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.999917853055838</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.936046511627907</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.653584288052373</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-1.00390676509504</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.376113117235836</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.40152304175515</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1822057</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5628629</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Whau_1a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
+++ b/trend_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -130,9 +130,6 @@
     <t>&lt; 3 unique values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
@@ -142,40 +139,40 @@
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
     <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -654,38 +651,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.0009012667498069</v>
+        <v>0.0001767944728929</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.767441860465116</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="K2">
-        <v>-0.0840163438256659</v>
+        <v>-0.100343406593407</v>
       </c>
       <c r="L2">
-        <v>-0.16054945054945</v>
+        <v>-0.179198018450837</v>
       </c>
       <c r="M2">
-        <v>-0.0442507764857558</v>
+        <v>-0.0532163763208295</v>
       </c>
       <c r="N2">
-        <v>-26.2551074455206</v>
+        <v>-35.8369309262166</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
       <c r="Q2">
         <v>1822057</v>
       </c>
@@ -693,19 +690,19 @@
         <v>5628629</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -725,37 +722,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.7791218362875399</v>
+        <v>0.22087816371246</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.892857142857143</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.135</v>
+        <v>10.125</v>
       </c>
       <c r="K3">
-        <v>0.0531756141947225</v>
+        <v>-0.0150722145804682</v>
       </c>
       <c r="L3">
-        <v>-0.0160108877114821</v>
+        <v>-0.113260842737067</v>
       </c>
       <c r="M3">
-        <v>0.0912700977621724</v>
+        <v>0.0387146460737956</v>
       </c>
       <c r="N3">
-        <v>0.524673055695338</v>
+        <v>-0.148861378572526</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1822057</v>
@@ -764,19 +761,19 @@
         <v>5628629</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,13 +793,13 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.445227650166422</v>
+        <v>0.214226178385582</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8245614035087721</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -811,22 +808,22 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="K4">
-        <v>0.0006888160982961</v>
+        <v>0.0053989474789916</v>
       </c>
       <c r="L4">
-        <v>-0.008362236842711</v>
+        <v>-0.0075971868335777</v>
       </c>
       <c r="M4">
-        <v>0.0103131372730422</v>
+        <v>0.0156677123263635</v>
       </c>
       <c r="N4">
-        <v>0.956689025411283</v>
+        <v>7.49853816526611</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1822057</v>
@@ -835,19 +832,19 @@
         <v>5628629</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1822057</v>
@@ -888,19 +885,19 @@
         <v>5628629</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -920,37 +917,37 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.322633939835724</v>
+        <v>0.5946735232772981</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.886792452830189</v>
+        <v>0.945454545454545</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.034965034965035</v>
+        <v>0.0423076923076923</v>
       </c>
       <c r="K6">
-        <v>0.0015391788467065</v>
+        <v>-0.0008368924653328</v>
       </c>
       <c r="L6">
-        <v>-0.0036522107545363</v>
+        <v>-0.0072977022977023</v>
       </c>
       <c r="M6">
-        <v>0.0061534328501927</v>
+        <v>0.0052321021521309</v>
       </c>
       <c r="N6">
-        <v>4.40205150158061</v>
+        <v>-1.97810946351397</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1822057</v>
@@ -959,19 +956,19 @@
         <v>5628629</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1000,10 +997,10 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1822057</v>
@@ -1012,19 +1009,19 @@
         <v>5628629</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1044,13 +1041,13 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.918202405810467</v>
+        <v>0.999062140555864</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.456140350877193</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1059,22 +1056,22 @@
         <v>0.045</v>
       </c>
       <c r="K8">
-        <v>-0.0010243343387233</v>
+        <v>-0.0025916889553178</v>
       </c>
       <c r="L8">
-        <v>-0.0022957034958132</v>
+        <v>-0.0038766911554697</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0012573638070777</v>
       </c>
       <c r="N8">
-        <v>-2.27629853049639</v>
+        <v>-5.75930878959513</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1822057</v>
@@ -1083,19 +1080,19 @@
         <v>5628629</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1115,37 +1112,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.177983559866866</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.892857142857143</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="K9">
-        <v>0.0024965823650033</v>
+        <v>-0.0531756141947225</v>
       </c>
       <c r="L9">
-        <v>-0.157409027085136</v>
+        <v>-0.162471514205664</v>
       </c>
       <c r="M9">
-        <v>0.0745534871569485</v>
+        <v>0.0439814899497892</v>
       </c>
       <c r="N9">
-        <v>0.09280975334585</v>
+        <v>-2.05311251717075</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>1822057</v>
@@ -1154,16 +1151,16 @@
         <v>5628629</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1177,43 +1174,43 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0760463162407899</v>
+        <v>0.467076373176292</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.842105263157895</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="K10">
-        <v>0.008714277466424201</v>
+        <v>0.000936346390484</v>
       </c>
       <c r="L10">
-        <v>-0.0009586430928361</v>
+        <v>-0.0150032586378521</v>
       </c>
       <c r="M10">
-        <v>0.0166514069529517</v>
+        <v>0.0154482184827169</v>
       </c>
       <c r="N10">
-        <v>6.45502034549943</v>
+        <v>0.624230926989336</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1822057</v>
@@ -1222,19 +1219,19 @@
         <v>5628629</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1254,37 +1251,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.762534788070248</v>
+        <v>0.202773032115754</v>
       </c>
       <c r="G11">
         <v>0.087719298245614</v>
       </c>
       <c r="H11">
-        <v>0.421052631578947</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>-0.0025218267473552</v>
+        <v>0.0045973201809834</v>
       </c>
       <c r="L11">
-        <v>-0.0119401265528236</v>
+        <v>-0.0030736009461989</v>
       </c>
       <c r="M11">
-        <v>0.0044108136239567</v>
+        <v>0.0144979046909581</v>
       </c>
       <c r="N11">
-        <v>-2.29256977032297</v>
+        <v>4.59732018098343</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q11">
         <v>1822057</v>
@@ -1293,19 +1290,19 @@
         <v>5628629</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1325,13 +1322,13 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.402126036298633</v>
+        <v>0.210280458883066</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.912280701754386</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1340,22 +1337,22 @@
         <v>0.083</v>
       </c>
       <c r="K12">
-        <v>0.0010788068780242</v>
+        <v>0.0046981863677723</v>
       </c>
       <c r="L12">
-        <v>-0.0083935222991109</v>
+        <v>-0.0055137391403435</v>
       </c>
       <c r="M12">
-        <v>0.009606706791821599</v>
+        <v>0.0156535714285714</v>
       </c>
       <c r="N12">
-        <v>1.29976732292073</v>
+        <v>5.66046550334019</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1822057</v>
@@ -1364,19 +1361,19 @@
         <v>5628629</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1396,7 +1393,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.103870028628941</v>
+        <v>0.0919824263379479</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1411,22 +1408,22 @@
         <v>9.039999999999999</v>
       </c>
       <c r="K13">
-        <v>1.2545623732757</v>
+        <v>1.36478073714267</v>
       </c>
       <c r="L13">
-        <v>-0.294220987756669</v>
+        <v>-0.261509151759148</v>
       </c>
       <c r="M13">
-        <v>4.22336990969454</v>
+        <v>4.643327411362</v>
       </c>
       <c r="N13">
-        <v>13.8779023592444</v>
+        <v>15.0971320480384</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1822057</v>
@@ -1435,19 +1432,19 @@
         <v>5628629</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1467,37 +1464,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.210552462000903</v>
+        <v>0.021550774137882</v>
       </c>
       <c r="G14">
-        <v>0.0303030303030303</v>
+        <v>0.0106382978723404</v>
       </c>
       <c r="H14">
-        <v>0.626262626262626</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="K14">
-        <v>-0.008553864168618201</v>
+        <v>-0.0186352040816327</v>
       </c>
       <c r="L14">
-        <v>-0.030017526419902</v>
+        <v>-0.0377432011918582</v>
       </c>
       <c r="M14">
-        <v>0.0069819276600735</v>
+        <v>-0.0026812318948336</v>
       </c>
       <c r="N14">
-        <v>-2.51584240253479</v>
+        <v>-5.8235012755102</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1822057</v>
@@ -1506,19 +1503,19 @@
         <v>5628629</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1538,37 +1535,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.999622230676362</v>
+        <v>0.995571365303335</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.87719298245614</v>
+        <v>0.849557522123894</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.925000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K15">
-        <v>0.0771619991850253</v>
+        <v>0.0486046966731898</v>
       </c>
       <c r="L15">
-        <v>0.0400365984050441</v>
+        <v>0.0185634841875936</v>
       </c>
       <c r="M15">
-        <v>0.102153033093488</v>
+        <v>0.0802747252747253</v>
       </c>
       <c r="N15">
-        <v>0.777450873400759</v>
+        <v>0.487998962582227</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1822057</v>
@@ -1577,19 +1574,19 @@
         <v>5628629</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1606,40 +1603,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.467276704084707</v>
+        <v>0.370290385294197</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.71304347826087</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07000000000000001</v>
+        <v>0.0785</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.000748974709501</v>
       </c>
       <c r="L16">
-        <v>-0.0024965823650034</v>
+        <v>-0.0019806834778474</v>
       </c>
       <c r="M16">
-        <v>0.0033722769611856</v>
+        <v>0.0034888894530509</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9541079101923891</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1822057</v>
@@ -1648,19 +1645,19 @@
         <v>5628629</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1677,40 +1674,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17">
-        <v>0.702556433217187</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>0.808695652173913</v>
+        <v>0.903508771929825</v>
       </c>
       <c r="H17">
-        <v>0.0260869565217391</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>1822057</v>
@@ -1719,19 +1698,19 @@
         <v>5628629</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1748,40 +1727,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>0.0042711975726622</v>
+        <v>0.0107820514764622</v>
       </c>
       <c r="G18">
-        <v>0.194444444444444</v>
+        <v>0.168224299065421</v>
       </c>
       <c r="H18">
-        <v>0.601851851851852</v>
+        <v>0.635514018691589</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.027972027972028</v>
+        <v>0.0304195804195804</v>
       </c>
       <c r="K18">
-        <v>0.0019135654781112</v>
+        <v>0.0017542553600245</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0030800387061713</v>
+        <v>0.003274804200251</v>
       </c>
       <c r="N18">
-        <v>6.8409965842478</v>
+        <v>5.76686244789693</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1822057</v>
@@ -1790,19 +1769,19 @@
         <v>5628629</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1819,16 +1798,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0.908668223555015</v>
+        <v>0.8622077417524761</v>
       </c>
       <c r="G19">
-        <v>0.826086956521739</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="H19">
-        <v>0.06956521739130429</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1849,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1822057</v>
@@ -1861,19 +1840,19 @@
         <v>5628629</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1887,43 +1866,43 @@
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0061070078406513</v>
+        <v>0.12853075504949</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.434782608695652</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.043</v>
+        <v>0.0435</v>
       </c>
       <c r="K20">
-        <v>0.0007525755494505</v>
+        <v>0.0003753854059609</v>
       </c>
       <c r="L20">
-        <v>0.0002562933160826</v>
+        <v>-0.0001750644518911</v>
       </c>
       <c r="M20">
-        <v>0.0012435271427694</v>
+        <v>0.0009938775510204001</v>
       </c>
       <c r="N20">
-        <v>1.75017569639662</v>
+        <v>0.86295495623206</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>1822057</v>
@@ -1932,19 +1911,19 @@
         <v>5628629</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1964,37 +1943,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.456061362045694</v>
+        <v>0.17916323337444</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.850877192982456</v>
+        <v>0.84070796460177</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="K21">
-        <v>-0.0043616209073557</v>
+        <v>-0.0150515109890109</v>
       </c>
       <c r="L21">
-        <v>-0.0553242177195368</v>
+        <v>-0.06318443154804319</v>
       </c>
       <c r="M21">
-        <v>0.0323683168635961</v>
+        <v>0.0134091756984545</v>
       </c>
       <c r="N21">
-        <v>-0.160353709829255</v>
+        <v>-0.559535724498546</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q21">
         <v>1822057</v>
@@ -2003,16 +1982,16 @@
         <v>5628629</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2032,38 +2011,38 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0001703476144272</v>
+        <v>0.0017411107211824</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.747826086956522</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1247</v>
+        <v>0.13</v>
       </c>
       <c r="K22">
-        <v>0.0069687050435566</v>
+        <v>0.0056422761449077</v>
       </c>
       <c r="L22">
-        <v>0.0042358681556103</v>
+        <v>0.0029130187370509</v>
       </c>
       <c r="M22">
-        <v>0.009847142490961899</v>
+        <v>0.009162476141073</v>
       </c>
       <c r="N22">
-        <v>5.58837613757552</v>
+        <v>4.34021241915979</v>
       </c>
       <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" t="s">
         <v>40</v>
       </c>
-      <c r="P22" t="s">
-        <v>41</v>
-      </c>
       <c r="Q22">
         <v>1822057</v>
       </c>
@@ -2071,19 +2050,19 @@
         <v>5628629</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2103,37 +2082,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.024407937983355</v>
+        <v>0.0803308248579252</v>
       </c>
       <c r="G23">
-        <v>0.0608695652173913</v>
+        <v>0.0614035087719298</v>
       </c>
       <c r="H23">
-        <v>0.417391304347826</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K23">
-        <v>0.0027537871140542</v>
+        <v>0.0018337517115472</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0070091910294274</v>
+        <v>0.0066495551601631</v>
       </c>
       <c r="N23">
-        <v>2.75378711405422</v>
+        <v>1.66704701049749</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1822057</v>
@@ -2142,19 +2121,19 @@
         <v>5628629</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2174,37 +2153,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.351081123111754</v>
+        <v>0.228638451558781</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.7913043478260871</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.082</v>
+        <v>0.0835</v>
       </c>
       <c r="K24">
-        <v>0.0008456267232701</v>
+        <v>0.0016227785372522</v>
       </c>
       <c r="L24">
-        <v>-0.0016671303695327</v>
+        <v>-0.0012866288218791</v>
       </c>
       <c r="M24">
-        <v>0.0035128033154753</v>
+        <v>0.0043560191705868</v>
       </c>
       <c r="N24">
-        <v>1.03125210154898</v>
+        <v>1.94344735000266</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1822057</v>
@@ -2213,19 +2192,19 @@
         <v>5628629</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2245,37 +2224,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.900307178888245</v>
+        <v>0.587128656036758</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.947826086956522</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.880000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="K25">
-        <v>-0.352012372560591</v>
+        <v>-0.10468949044586</v>
       </c>
       <c r="L25">
-        <v>-0.789934618638283</v>
+        <v>-0.510007166574768</v>
       </c>
       <c r="M25">
-        <v>0.0400021472111222</v>
+        <v>0.376126526873431</v>
       </c>
       <c r="N25">
-        <v>-3.56287826478331</v>
+        <v>-1.13916746948705</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1822057</v>
@@ -2284,19 +2263,19 @@
         <v>5628629</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2316,37 +2295,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.046762799664863</v>
+        <v>0.033896977935381</v>
       </c>
       <c r="G26">
         <v>0.0225563909774436</v>
       </c>
       <c r="H26">
-        <v>0.548872180451128</v>
+        <v>0.541353383458647</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="K26">
         <v>-0.0150034230944774</v>
       </c>
       <c r="L26">
-        <v>-0.0328883408387135</v>
+        <v>-0.0309707452130936</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-0.0013341226681603</v>
       </c>
       <c r="N26">
-        <v>-4.05497921472362</v>
+        <v>-4.28669231270783</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1822057</v>
@@ -2355,19 +2334,19 @@
         <v>5628629</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2387,37 +2366,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.689550291707973</v>
+        <v>0.6308532506268379</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.847058823529412</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.865</v>
+        <v>9.9</v>
       </c>
       <c r="K27">
-        <v>0.0099855747670536</v>
+        <v>0.008165975490119</v>
       </c>
       <c r="L27">
-        <v>-0.0199726589200274</v>
+        <v>-0.0212981225707652</v>
       </c>
       <c r="M27">
-        <v>0.0322506146482664</v>
+        <v>0.0311971887836627</v>
       </c>
       <c r="N27">
-        <v>0.10122224801879</v>
+        <v>0.08248460091029371</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1822057</v>
@@ -2426,19 +2405,19 @@
         <v>5628629</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2455,41 +2434,41 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F28">
-        <v>1.05711625170537E-08</v>
+        <v>3.61428328335614E-07</v>
       </c>
       <c r="G28">
-        <v>0.160919540229885</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="H28">
-        <v>0.5344827586206899</v>
+        <v>0.572254335260116</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.0405</v>
+        <v>0.045</v>
       </c>
       <c r="K28">
-        <v>0.0039755102040816</v>
+        <v>0.0041809752747252</v>
       </c>
       <c r="L28">
-        <v>0.0025839228662711</v>
+        <v>0.0025846392217235</v>
       </c>
       <c r="M28">
-        <v>0.0059874458816748</v>
+        <v>0.0062379536978847</v>
       </c>
       <c r="N28">
-        <v>9.816074577979339</v>
+        <v>9.291056166056171</v>
       </c>
       <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s">
         <v>40</v>
       </c>
-      <c r="P28" t="s">
-        <v>41</v>
-      </c>
       <c r="Q28">
         <v>1822057</v>
       </c>
@@ -2497,19 +2476,19 @@
         <v>5628629</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2526,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>0.91877028450203</v>
+        <v>0.899243102428179</v>
       </c>
       <c r="G29">
-        <v>0.7471264367816089</v>
+        <v>0.763005780346821</v>
       </c>
       <c r="H29">
-        <v>0.0459770114942529</v>
+        <v>0.0404624277456647</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2556,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1822057</v>
@@ -2568,19 +2547,19 @@
         <v>5628629</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2597,41 +2576,41 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>0.0004306481999577</v>
+        <v>0.0001038955292322</v>
       </c>
       <c r="G30">
-        <v>0.246987951807229</v>
+        <v>0.216867469879518</v>
       </c>
       <c r="H30">
-        <v>0.524096385542169</v>
+        <v>0.566265060240964</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.026048951048951</v>
+        <v>0.0270979020979021</v>
       </c>
       <c r="K30">
-        <v>0.001028460302073</v>
+        <v>0.001236340878732</v>
       </c>
       <c r="L30">
-        <v>3.8758282667614E-05</v>
+        <v>0.0005112158157831</v>
       </c>
       <c r="M30">
-        <v>0.0016410003746412</v>
+        <v>0.0019528436844388</v>
       </c>
       <c r="N30">
-        <v>3.94818317305897</v>
+        <v>4.56249666215953</v>
       </c>
       <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" t="s">
         <v>40</v>
       </c>
-      <c r="P30" t="s">
-        <v>41</v>
-      </c>
       <c r="Q30">
         <v>1822057</v>
       </c>
@@ -2639,19 +2618,19 @@
         <v>5628629</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2668,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.919343491869824</v>
+        <v>0.941761455798145</v>
       </c>
       <c r="G31">
-        <v>0.798780487804878</v>
+        <v>0.8092485549132949</v>
       </c>
       <c r="H31">
-        <v>0.0548780487804878</v>
+        <v>0.0520231213872832</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2698,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1822057</v>
@@ -2710,19 +2689,19 @@
         <v>5628629</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2742,13 +2721,13 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>1.25218626826303E-08</v>
+        <v>6.65731171136262E-07</v>
       </c>
       <c r="G32">
-        <v>0.0182926829268293</v>
+        <v>0.0173410404624277</v>
       </c>
       <c r="H32">
-        <v>0.390243902439024</v>
+        <v>0.375722543352601</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -2757,23 +2736,23 @@
         <v>0.04</v>
       </c>
       <c r="K32">
-        <v>0.0010022309075816</v>
+        <v>0.0009056533597818</v>
       </c>
       <c r="L32">
-        <v>0.0007454081632653</v>
+        <v>0.000596555611279</v>
       </c>
       <c r="M32">
-        <v>0.00124261997132</v>
+        <v>0.0010774336283185</v>
       </c>
       <c r="N32">
-        <v>2.50557726895406</v>
+        <v>2.2641333994545</v>
       </c>
       <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
         <v>40</v>
       </c>
-      <c r="P32" t="s">
-        <v>41</v>
-      </c>
       <c r="Q32">
         <v>1822057</v>
       </c>
@@ -2781,19 +2760,19 @@
         <v>5628629</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2813,34 +2792,34 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>1.82956415017976E-07</v>
+        <v>3.39799810955554E-07</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.825581395348837</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>3.14</v>
+        <v>2.99</v>
       </c>
       <c r="K33">
-        <v>-0.100877686956304</v>
+        <v>-0.0887334465988385</v>
       </c>
       <c r="L33">
-        <v>-0.139175475451507</v>
+        <v>-0.124923396202529</v>
       </c>
       <c r="M33">
-        <v>-0.0663840675179639</v>
+        <v>-0.0591649406806848</v>
       </c>
       <c r="N33">
-        <v>-3.21266518969122</v>
+        <v>-2.96767379929226</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
         <v>52</v>
@@ -2852,16 +2831,16 @@
         <v>5628629</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2881,38 +2860,38 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>1.35480918516197E-05</v>
+        <v>3.03595369740758E-06</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.7471264367816089</v>
+        <v>0.763005780346821</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.12</v>
+        <v>0.1235</v>
       </c>
       <c r="K34">
-        <v>0.0046744043567052</v>
+        <v>0.0051323185011709</v>
       </c>
       <c r="L34">
-        <v>0.0028954537793669</v>
+        <v>0.0034111639909418</v>
       </c>
       <c r="M34">
-        <v>0.0066751274412509</v>
+        <v>0.0073354298595027</v>
       </c>
       <c r="N34">
-        <v>3.89533696392103</v>
+        <v>4.15572348272952</v>
       </c>
       <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
         <v>40</v>
       </c>
-      <c r="P34" t="s">
-        <v>41</v>
-      </c>
       <c r="Q34">
         <v>1822057</v>
       </c>
@@ -2920,19 +2899,19 @@
         <v>5628629</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2952,13 +2931,13 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.0020247330538343</v>
+        <v>0.0007324395159754</v>
       </c>
       <c r="G35">
-        <v>0.0977011494252874</v>
+        <v>0.07514450867052019</v>
       </c>
       <c r="H35">
-        <v>0.344827586206897</v>
+        <v>0.352601156069364</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -2967,23 +2946,23 @@
         <v>0.1</v>
       </c>
       <c r="K35">
-        <v>0.0032378111148994</v>
+        <v>0.0033340940209949</v>
       </c>
       <c r="L35">
-        <v>0.0014856305274464</v>
+        <v>0.0016664221032349</v>
       </c>
       <c r="M35">
-        <v>0.0049912287835022</v>
+        <v>0.0050071121986617</v>
       </c>
       <c r="N35">
-        <v>3.23781111489942</v>
+        <v>3.33409402099498</v>
       </c>
       <c r="O35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s">
         <v>40</v>
       </c>
-      <c r="P35" t="s">
-        <v>41</v>
-      </c>
       <c r="Q35">
         <v>1822057</v>
       </c>
@@ -2991,19 +2970,19 @@
         <v>5628629</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3020,41 +2999,41 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>1.77405853542764E-05</v>
+        <v>6.11615525411263E-06</v>
       </c>
       <c r="G36">
-        <v>0.0057471264367816</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="H36">
-        <v>0.660919540229885</v>
+        <v>0.687861271676301</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="K36">
-        <v>0.0029543616226978</v>
+        <v>0.0032725236436037</v>
       </c>
       <c r="L36">
-        <v>0.0018398987587234</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="M36">
-        <v>0.0045410750087468</v>
+        <v>0.0050034246575342</v>
       </c>
       <c r="N36">
-        <v>4.84321577491452</v>
+        <v>5.19448197397426</v>
       </c>
       <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" t="s">
         <v>40</v>
       </c>
-      <c r="P36" t="s">
-        <v>41</v>
-      </c>
       <c r="Q36">
         <v>1822057</v>
       </c>
@@ -3062,19 +3041,19 @@
         <v>5628629</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3094,37 +3073,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.999247860043962</v>
+        <v>0.995994346666138</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.925287356321839</v>
+        <v>0.9306358381502891</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>10.95</v>
+        <v>10.5</v>
       </c>
       <c r="K37">
-        <v>-0.514278006166495</v>
+        <v>-0.391339285714286</v>
       </c>
       <c r="L37">
-        <v>-0.810488963939902</v>
+        <v>-0.653109270444136</v>
       </c>
       <c r="M37">
-        <v>-0.290806254382661</v>
+        <v>-0.177271931459787</v>
       </c>
       <c r="N37">
-        <v>-4.69660279604105</v>
+        <v>-3.72704081632653</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>1822057</v>
@@ -3133,19 +3112,19 @@
         <v>5628629</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
